--- a/excel/pingan/exportedExcel.xlsx
+++ b/excel/pingan/exportedExcel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyan\Desktop\NBgupiao\stockapp\client\excel\pingan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.ou\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D853F344-765F-44ED-A977-7093862FC20C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7DC41E6-14BA-4F89-A5EA-002D251E4BE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18453214-AB27-40B7-A136-AC2B9C0F85BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0723BEB7-41CC-4D36-BA65-1C0CDECA5B82}"/>
   </bookViews>
   <sheets>
     <sheet name="exportedData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -162,6 +165,9 @@
     <t>债务股本比</t>
   </si>
   <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
     <t>2020-12-31</t>
   </si>
   <si>
@@ -244,9 +250,6 @@
   </si>
   <si>
     <t>2014-03-31</t>
-  </si>
-  <si>
-    <t>2013-12-31</t>
   </si>
   <si>
     <t>--</t>
@@ -358,7 +361,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{174F36DB-5E4C-4539-A96E-8407AD5625B1}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{647546CF-46CC-4D7B-9A30-11789781F460}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -669,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80629D72-302A-433A-B253-9B015504260B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A32511A-CBB6-4E3E-831E-72DEA34D8C3D}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:AD57"/>
   <sheetViews>
@@ -879,91 +882,91 @@
         <v>1</v>
       </c>
       <c r="B3" s="8">
+        <v>272.23</v>
+      </c>
+      <c r="C3" s="8">
         <v>400.58</v>
       </c>
-      <c r="C3" s="8">
+      <c r="D3" s="8">
         <v>343.58</v>
       </c>
-      <c r="D3" s="8">
+      <c r="E3" s="8">
         <v>426.2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="8">
         <v>260.63</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
         <v>198.4</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="8">
         <v>318.91000000000003</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>521.59</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>455.17</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>280.07</v>
       </c>
-      <c r="K3" s="8">
+      <c r="L3" s="8">
         <v>213.02</v>
       </c>
-      <c r="L3" s="8">
+      <c r="M3" s="8">
         <v>323.93</v>
       </c>
-      <c r="M3" s="8">
+      <c r="N3" s="8">
         <v>257.02</v>
       </c>
-      <c r="N3" s="8">
+      <c r="O3" s="8">
         <v>227.7</v>
       </c>
-      <c r="O3" s="8">
+      <c r="P3" s="8">
         <v>228.91</v>
       </c>
-      <c r="P3" s="8">
+      <c r="Q3" s="8">
         <v>203.74</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="R3" s="8">
         <v>230.53</v>
       </c>
-      <c r="R3" s="8">
+      <c r="S3" s="8">
         <v>58.86</v>
       </c>
-      <c r="S3" s="8">
+      <c r="T3" s="8">
         <v>157.32</v>
       </c>
-      <c r="T3" s="8">
+      <c r="U3" s="8">
         <v>200.76</v>
       </c>
-      <c r="U3" s="8">
+      <c r="V3" s="8">
         <v>207</v>
       </c>
-      <c r="V3" s="8">
+      <c r="W3" s="8">
         <v>59.27</v>
       </c>
-      <c r="W3" s="8">
+      <c r="X3" s="8">
         <v>136.27000000000001</v>
       </c>
-      <c r="X3" s="8">
+      <c r="Y3" s="8">
         <v>146.85</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Z3" s="8">
         <v>199.64</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="AA3" s="8">
         <v>75.92</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AB3" s="8">
         <v>103.25</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AC3" s="8">
         <v>105.53</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AD3" s="8">
         <v>108.09</v>
-      </c>
-      <c r="AD3" s="8">
-        <v>48.15</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -971,91 +974,91 @@
         <v>2</v>
       </c>
       <c r="B4" s="8">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="C4" s="8">
         <v>402.85</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D4" s="8">
         <v>343.76</v>
       </c>
-      <c r="D4" s="8">
+      <c r="E4" s="8">
         <v>427.17</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <v>261.62</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="8">
         <v>198.68</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="8">
         <v>319.41000000000003</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>418.65</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
         <v>455.81</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <v>282.19</v>
       </c>
-      <c r="K4" s="8">
+      <c r="L4" s="8">
         <v>212.94</v>
       </c>
-      <c r="L4" s="8">
+      <c r="M4" s="8">
         <v>323.85000000000002</v>
       </c>
-      <c r="M4" s="8">
+      <c r="N4" s="8">
         <v>256.99</v>
       </c>
-      <c r="N4" s="8">
+      <c r="O4" s="8">
         <v>228.28</v>
       </c>
-      <c r="O4" s="8">
+      <c r="P4" s="8">
         <v>229.07</v>
       </c>
-      <c r="P4" s="8">
+      <c r="Q4" s="8">
         <v>203.79</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="R4" s="8">
         <v>230.23</v>
       </c>
-      <c r="R4" s="8">
+      <c r="S4" s="8">
         <v>54.43</v>
       </c>
-      <c r="S4" s="8">
+      <c r="T4" s="8">
         <v>155.30000000000001</v>
       </c>
-      <c r="T4" s="8">
+      <c r="U4" s="8">
         <v>200.35</v>
       </c>
-      <c r="U4" s="8">
+      <c r="V4" s="8">
         <v>205.08</v>
       </c>
-      <c r="V4" s="8">
+      <c r="W4" s="8">
         <v>57.79</v>
       </c>
-      <c r="W4" s="8">
+      <c r="X4" s="8">
         <v>135.44</v>
       </c>
-      <c r="X4" s="8">
+      <c r="Y4" s="8">
         <v>146.30000000000001</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Z4" s="8">
         <v>199.39</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="AA4" s="8">
         <v>75.430000000000007</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AB4" s="8">
         <v>103.83</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AC4" s="8">
         <v>104.82</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AD4" s="8">
         <v>108.07</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>48.13</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -1063,91 +1066,91 @@
         <v>3</v>
       </c>
       <c r="B5" s="8">
+        <v>3403.08</v>
+      </c>
+      <c r="C5" s="8">
         <v>3012.45</v>
       </c>
-      <c r="C5" s="8">
+      <c r="D5" s="8">
         <v>2871.14</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>3017.84</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>3281.72</v>
       </c>
-      <c r="F5" s="8">
+      <c r="G5" s="8">
         <v>2761.16</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>2535.96</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>2609.94</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>3781.61</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>2243.54</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
         <v>2161.7800000000002</v>
       </c>
-      <c r="L5" s="8">
+      <c r="M5" s="8">
         <v>2250.79</v>
       </c>
-      <c r="M5" s="8">
+      <c r="N5" s="8">
         <v>3112.21</v>
       </c>
-      <c r="N5" s="8">
+      <c r="O5" s="8">
         <v>2278.8000000000002</v>
       </c>
-      <c r="O5" s="8">
+      <c r="P5" s="8">
         <v>1992.4</v>
       </c>
-      <c r="P5" s="8">
+      <c r="Q5" s="8">
         <v>1980.07</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="R5" s="8">
         <v>2657.55</v>
       </c>
-      <c r="R5" s="8">
+      <c r="S5" s="8">
         <v>1663.35</v>
       </c>
-      <c r="S5" s="8">
+      <c r="T5" s="8">
         <v>1694.61</v>
       </c>
-      <c r="T5" s="8">
+      <c r="U5" s="8">
         <v>1678</v>
       </c>
-      <c r="U5" s="8">
+      <c r="V5" s="8">
         <v>2088.5700000000002</v>
       </c>
-      <c r="V5" s="8">
+      <c r="W5" s="8">
         <v>1467.84</v>
       </c>
-      <c r="W5" s="8">
+      <c r="X5" s="8">
         <v>1352.97</v>
       </c>
-      <c r="X5" s="8">
+      <c r="Y5" s="8">
         <v>1624.52</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Z5" s="8">
         <v>1754.57</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="AA5" s="8">
         <v>1185.22</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AB5" s="8">
         <v>1080.24</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AC5" s="8">
         <v>1051.82</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AD5" s="8">
         <v>1311.54</v>
-      </c>
-      <c r="AD5" s="8">
-        <v>881.48</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -1155,91 +1158,91 @@
         <v>4</v>
       </c>
       <c r="B6" s="8">
+        <v>648.72</v>
+      </c>
+      <c r="C6" s="8">
         <v>477.62</v>
       </c>
-      <c r="C6" s="8">
+      <c r="D6" s="8">
         <v>1335.73</v>
       </c>
-      <c r="D6" s="8">
+      <c r="E6" s="8">
         <v>25.39</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <v>1282.01</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <v>-814.43</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H6" s="8">
         <v>1490.35</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>217.79</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>1600.74</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>474.99</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L6" s="8">
         <v>198.25</v>
       </c>
-      <c r="L6" s="8">
+      <c r="M6" s="8">
         <v>-9.31</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N6" s="8">
         <v>1398.67</v>
       </c>
-      <c r="N6" s="8">
+      <c r="O6" s="8">
         <v>1134.6199999999999</v>
       </c>
-      <c r="O6" s="8">
+      <c r="P6" s="8">
         <v>217.96</v>
       </c>
-      <c r="P6" s="8">
+      <c r="Q6" s="8">
         <v>277.10000000000002</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="R6" s="8">
         <v>-416.85</v>
       </c>
-      <c r="R6" s="8">
+      <c r="S6" s="8">
         <v>2448.46</v>
       </c>
-      <c r="S6" s="8">
+      <c r="T6" s="8">
         <v>-830.23</v>
       </c>
-      <c r="T6" s="8">
+      <c r="U6" s="8">
         <v>-532.74</v>
       </c>
-      <c r="U6" s="8">
+      <c r="V6" s="8">
         <v>1192.72</v>
       </c>
-      <c r="V6" s="8">
+      <c r="W6" s="8">
         <v>-354.49</v>
       </c>
-      <c r="W6" s="8">
+      <c r="X6" s="8">
         <v>-768.29</v>
       </c>
-      <c r="X6" s="8">
+      <c r="Y6" s="8">
         <v>1867.47</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Z6" s="8">
         <v>611.49</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="AA6" s="8">
         <v>581.69000000000005</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AB6" s="8">
         <v>-221.75</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AC6" s="8">
         <v>239.68</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AD6" s="8">
         <v>1102.98</v>
-      </c>
-      <c r="AD6" s="8">
-        <v>190.55</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -1247,91 +1250,91 @@
         <v>5</v>
       </c>
       <c r="B7" s="8">
+        <v>48.75</v>
+      </c>
+      <c r="C7" s="8">
         <v>43.76</v>
       </c>
-      <c r="C7" s="8">
+      <c r="D7" s="8">
         <v>23.08</v>
       </c>
-      <c r="D7" s="8">
+      <c r="E7" s="8">
         <v>17.059999999999999</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="8">
         <v>16.05</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G7" s="8">
         <v>52.28</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="8">
         <v>27.94</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>27.25</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>14.63</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>55.89</v>
       </c>
-      <c r="K7" s="8">
+      <c r="L7" s="8">
         <v>24.13</v>
       </c>
-      <c r="L7" s="8">
+      <c r="M7" s="8">
         <v>13.56</v>
       </c>
-      <c r="M7" s="8">
+      <c r="N7" s="8">
         <v>13.05</v>
       </c>
-      <c r="N7" s="8">
+      <c r="O7" s="8">
         <v>75.099999999999994</v>
       </c>
-      <c r="O7" s="8">
+      <c r="P7" s="8">
         <v>30.64</v>
       </c>
-      <c r="P7" s="8">
+      <c r="Q7" s="8">
         <v>58.81</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="R7" s="8">
         <v>28.02</v>
       </c>
-      <c r="R7" s="8">
+      <c r="S7" s="8">
         <v>40.119999999999997</v>
       </c>
-      <c r="S7" s="8">
+      <c r="T7" s="8">
         <v>27.22</v>
       </c>
-      <c r="T7" s="8">
+      <c r="U7" s="8">
         <v>71.7</v>
       </c>
-      <c r="U7" s="8">
+      <c r="V7" s="8">
         <v>27.2</v>
       </c>
-      <c r="V7" s="8">
+      <c r="W7" s="8">
         <v>49.16</v>
       </c>
-      <c r="W7" s="8">
+      <c r="X7" s="8">
         <v>64.459999999999994</v>
       </c>
-      <c r="X7" s="8">
+      <c r="Y7" s="8">
         <v>24.2</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Z7" s="8">
         <v>27.47</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="AA7" s="8">
         <v>33.01</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AB7" s="8">
         <v>36.159999999999997</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AC7" s="8">
         <v>47.36</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AD7" s="8">
         <v>18.77</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>49.11</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -1339,91 +1342,91 @@
         <v>6</v>
       </c>
       <c r="B8" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="C8" s="8">
         <v>0.53</v>
       </c>
-      <c r="C8" s="8">
+      <c r="D8" s="8">
         <v>0.37</v>
       </c>
-      <c r="D8" s="8">
+      <c r="E8" s="8">
         <v>-0.99</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <v>3.99</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="8">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G8" s="8">
+      <c r="H8" s="8">
         <v>11.01</v>
       </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
       <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
         <v>12.94</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>26.19</v>
       </c>
-      <c r="K8" s="8">
+      <c r="L8" s="8">
         <v>4.9800000000000004</v>
       </c>
-      <c r="L8" s="8">
+      <c r="M8" s="8">
         <v>4.55</v>
       </c>
-      <c r="M8" s="8">
+      <c r="N8" s="8">
         <v>0.01</v>
       </c>
-      <c r="N8" s="8">
+      <c r="O8" s="8">
         <v>0.17</v>
       </c>
-      <c r="O8" s="8">
+      <c r="P8" s="8">
         <v>1.24</v>
       </c>
-      <c r="P8" s="8">
+      <c r="Q8" s="8">
         <v>3.67</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="R8" s="8">
         <v>0.63</v>
       </c>
-      <c r="R8" s="8">
+      <c r="S8" s="8">
         <v>0.84</v>
       </c>
-      <c r="S8" s="8">
+      <c r="T8" s="8">
         <v>2.68</v>
       </c>
-      <c r="T8" s="8">
+      <c r="U8" s="8">
         <v>0.19</v>
       </c>
-      <c r="U8" s="8">
+      <c r="V8" s="8">
         <v>0.05</v>
       </c>
-      <c r="V8" s="8">
+      <c r="W8" s="8">
         <v>1.88</v>
       </c>
-      <c r="W8" s="8">
+      <c r="X8" s="8">
         <v>-0.72</v>
       </c>
-      <c r="X8" s="8">
+      <c r="Y8" s="8">
         <v>1.22</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Z8" s="8">
         <v>0.02</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="AA8" s="8">
         <v>3.67</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AB8" s="8">
         <v>-0.39</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AC8" s="8">
         <v>0.86</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AD8" s="8">
         <v>2.87</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -1431,91 +1434,91 @@
         <v>7</v>
       </c>
       <c r="B9" s="8">
+        <v>-186.35</v>
+      </c>
+      <c r="C9" s="8">
         <v>-1134.3900000000001</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="8">
         <v>-1024.29</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="8">
         <v>-750.8</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="8">
         <v>-1561.9</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="8">
         <v>-1723.37</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="8">
         <v>-848.64</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <v>-860.91</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>-368.65</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>-1497.5</v>
       </c>
-      <c r="K9" s="8">
+      <c r="L9" s="8">
         <v>-495.86</v>
       </c>
-      <c r="L9" s="8">
+      <c r="M9" s="8">
         <v>414.3</v>
       </c>
-      <c r="M9" s="8">
+      <c r="N9" s="8">
         <v>-825.2</v>
       </c>
-      <c r="N9" s="8">
+      <c r="O9" s="8">
         <v>-742.25</v>
       </c>
-      <c r="O9" s="8">
+      <c r="P9" s="8">
         <v>-405.48</v>
       </c>
-      <c r="P9" s="8">
+      <c r="Q9" s="8">
         <v>-1468.77</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="R9" s="8">
         <v>-931.17</v>
       </c>
-      <c r="R9" s="8">
+      <c r="S9" s="8">
         <v>-1363.55</v>
       </c>
-      <c r="S9" s="8">
+      <c r="T9" s="8">
         <v>721.35</v>
       </c>
-      <c r="T9" s="8">
+      <c r="U9" s="8">
         <v>-1422.38</v>
       </c>
-      <c r="U9" s="8">
+      <c r="V9" s="8">
         <v>-1241.58</v>
       </c>
-      <c r="V9" s="8">
+      <c r="W9" s="8">
         <v>-1294.94</v>
       </c>
-      <c r="W9" s="8">
+      <c r="X9" s="8">
         <v>-87.23</v>
       </c>
-      <c r="X9" s="8">
+      <c r="Y9" s="8">
         <v>-907.28</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Z9" s="8">
         <v>-447.87</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="AA9" s="8">
         <v>-434.02</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AB9" s="8">
         <v>-446</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AC9" s="8">
         <v>-835.74</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AD9" s="8">
         <v>-653.13</v>
-      </c>
-      <c r="AD9" s="8">
-        <v>-321.14</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -1523,91 +1526,91 @@
         <v>8</v>
       </c>
       <c r="B10" s="8">
+        <v>-281.89</v>
+      </c>
+      <c r="C10" s="8">
         <v>550</v>
       </c>
-      <c r="C10" s="8">
+      <c r="D10" s="8">
         <v>558.41</v>
       </c>
-      <c r="D10" s="8">
+      <c r="E10" s="8">
         <v>913.87</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8">
         <v>584.13</v>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="8">
         <v>2312.5</v>
       </c>
-      <c r="G10" s="8">
+      <c r="H10" s="8">
         <v>-407.26</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10" s="8">
         <v>-54.59</v>
       </c>
-      <c r="I10" s="8">
+      <c r="J10" s="8">
         <v>-599.88</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <v>1238.5999999999999</v>
       </c>
-      <c r="K10" s="8">
+      <c r="L10" s="8">
         <v>-562.47</v>
       </c>
-      <c r="L10" s="8">
+      <c r="M10" s="8">
         <v>-345.12</v>
       </c>
-      <c r="M10" s="8">
+      <c r="N10" s="8">
         <v>-18.37</v>
       </c>
-      <c r="N10" s="8">
+      <c r="O10" s="8">
         <v>274.47000000000003</v>
       </c>
-      <c r="O10" s="8">
+      <c r="P10" s="8">
         <v>371.95</v>
       </c>
-      <c r="P10" s="8">
+      <c r="Q10" s="8">
         <v>636.79</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="R10" s="8">
         <v>502.67</v>
       </c>
-      <c r="R10" s="8">
+      <c r="S10" s="8">
         <v>38.64</v>
       </c>
-      <c r="S10" s="8">
+      <c r="T10" s="8">
         <v>-423.32</v>
       </c>
-      <c r="T10" s="8">
+      <c r="U10" s="8">
         <v>1178.01</v>
       </c>
-      <c r="U10" s="8">
+      <c r="V10" s="8">
         <v>536.71</v>
       </c>
-      <c r="V10" s="8">
+      <c r="W10" s="8">
         <v>374.48</v>
       </c>
-      <c r="W10" s="8">
+      <c r="X10" s="8">
         <v>615.92999999999995</v>
       </c>
-      <c r="X10" s="8">
+      <c r="Y10" s="8">
         <v>859.73</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Z10" s="8">
         <v>199.62</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="AA10" s="8">
         <v>246.01</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AB10" s="8">
         <v>95.97</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AC10" s="8">
         <v>171.01</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AD10" s="8">
         <v>340.69</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>302.39</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -2075,91 +2078,91 @@
         <v>14</v>
       </c>
       <c r="B16" s="8">
+        <v>387.36</v>
+      </c>
+      <c r="C16" s="8">
         <v>506.54</v>
       </c>
-      <c r="C16" s="8">
+      <c r="D16" s="8">
         <v>466.25</v>
       </c>
-      <c r="D16" s="8">
+      <c r="E16" s="8">
         <v>535.52</v>
       </c>
-      <c r="E16" s="8">
+      <c r="F16" s="8">
         <v>374.73</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="8">
         <v>239.05</v>
       </c>
-      <c r="G16" s="8">
+      <c r="H16" s="8">
         <v>447.28</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <v>530.91</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J16" s="8">
         <v>633.04</v>
       </c>
-      <c r="J16" s="8">
+      <c r="K16" s="8">
         <v>409.75</v>
       </c>
-      <c r="K16" s="8">
+      <c r="L16" s="8">
         <v>356.39</v>
       </c>
-      <c r="L16" s="8">
+      <c r="M16" s="8">
         <v>471.49</v>
       </c>
-      <c r="M16" s="8">
+      <c r="N16" s="8">
         <v>395.75</v>
       </c>
-      <c r="N16" s="8">
+      <c r="O16" s="8">
         <v>342.3</v>
       </c>
-      <c r="O16" s="8">
+      <c r="P16" s="8">
         <v>350.25</v>
       </c>
-      <c r="P16" s="8">
+      <c r="Q16" s="8">
         <v>327.32</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="R16" s="8">
         <v>327.71</v>
       </c>
-      <c r="R16" s="8">
+      <c r="S16" s="8">
         <v>113.38</v>
       </c>
-      <c r="S16" s="8">
+      <c r="T16" s="8">
         <v>262.44</v>
       </c>
-      <c r="T16" s="8">
+      <c r="U16" s="8">
         <v>286.58</v>
       </c>
-      <c r="U16" s="8">
+      <c r="V16" s="8">
         <v>271.27999999999997</v>
       </c>
-      <c r="V16" s="8">
+      <c r="W16" s="8">
         <v>122.05</v>
       </c>
-      <c r="W16" s="8">
+      <c r="X16" s="8">
         <v>213.14</v>
       </c>
-      <c r="X16" s="8">
+      <c r="Y16" s="8">
         <v>259.68</v>
       </c>
-      <c r="Y16" s="8">
+      <c r="Z16" s="8">
         <v>334.6</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="AA16" s="8">
         <v>127.31</v>
       </c>
-      <c r="AA16" s="8">
+      <c r="AB16" s="8">
         <v>170.94</v>
       </c>
-      <c r="AB16" s="8">
+      <c r="AC16" s="8">
         <v>158.54</v>
       </c>
-      <c r="AC16" s="8">
+      <c r="AD16" s="8">
         <v>166.62</v>
-      </c>
-      <c r="AD16" s="8">
-        <v>86.34</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -2298,7 +2301,7 @@
         <v>1027.75</v>
       </c>
       <c r="N20" s="8">
-        <v>517.03</v>
+        <v>524.45000000000005</v>
       </c>
       <c r="O20" s="8" t="e">
         <v>#REF!</v>
@@ -2942,7 +2945,7 @@
         <v>8439.69</v>
       </c>
       <c r="N27" s="8">
-        <v>6374.05</v>
+        <v>6261.71</v>
       </c>
       <c r="O27" s="8" t="e">
         <v>#REF!</v>
@@ -3034,7 +3037,7 @@
         <v>849.7</v>
       </c>
       <c r="N28" s="8">
-        <v>645.41999999999996</v>
+        <v>787.57</v>
       </c>
       <c r="O28" s="8" t="e">
         <v>#REF!</v>
@@ -3182,91 +3185,91 @@
         <v>25</v>
       </c>
       <c r="B31" s="8">
+        <v>3403.08</v>
+      </c>
+      <c r="C31" s="8">
         <v>3012.45</v>
       </c>
-      <c r="C31" s="8">
+      <c r="D31" s="8">
         <v>2871.14</v>
       </c>
-      <c r="D31" s="8">
+      <c r="E31" s="8">
         <v>3017.84</v>
       </c>
-      <c r="E31" s="8">
+      <c r="F31" s="8">
         <v>3281.72</v>
       </c>
-      <c r="F31" s="8">
+      <c r="G31" s="8">
         <v>2761.16</v>
       </c>
-      <c r="G31" s="8">
+      <c r="H31" s="8">
         <v>2535.96</v>
       </c>
-      <c r="H31" s="8">
+      <c r="I31" s="8">
         <v>2609.94</v>
       </c>
-      <c r="I31" s="8">
+      <c r="J31" s="8">
         <v>3781.61</v>
       </c>
-      <c r="J31" s="8">
+      <c r="K31" s="8">
         <v>2243.54</v>
       </c>
-      <c r="K31" s="8">
+      <c r="L31" s="8">
         <v>2161.7800000000002</v>
       </c>
-      <c r="L31" s="8">
+      <c r="M31" s="8">
         <v>2250.79</v>
       </c>
-      <c r="M31" s="8">
+      <c r="N31" s="8">
         <v>3112.21</v>
       </c>
-      <c r="N31" s="8">
+      <c r="O31" s="8">
         <v>2278.8000000000002</v>
       </c>
-      <c r="O31" s="8">
+      <c r="P31" s="8">
         <v>1992.4</v>
       </c>
-      <c r="P31" s="8">
+      <c r="Q31" s="8">
         <v>1980.07</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="R31" s="8">
         <v>2657.55</v>
       </c>
-      <c r="R31" s="8">
+      <c r="S31" s="8">
         <v>1663.35</v>
       </c>
-      <c r="S31" s="8">
+      <c r="T31" s="8">
         <v>1694.61</v>
       </c>
-      <c r="T31" s="8">
+      <c r="U31" s="8">
         <v>1678</v>
       </c>
-      <c r="U31" s="8">
+      <c r="V31" s="8">
         <v>2088.5700000000002</v>
       </c>
-      <c r="V31" s="8">
+      <c r="W31" s="8">
         <v>1467.84</v>
       </c>
-      <c r="W31" s="8">
+      <c r="X31" s="8">
         <v>1352.97</v>
       </c>
-      <c r="X31" s="8">
+      <c r="Y31" s="8">
         <v>1624.52</v>
       </c>
-      <c r="Y31" s="8">
+      <c r="Z31" s="8">
         <v>1754.57</v>
       </c>
-      <c r="Z31" s="8">
+      <c r="AA31" s="8">
         <v>1185.22</v>
       </c>
-      <c r="AA31" s="8">
+      <c r="AB31" s="8">
         <v>1080.24</v>
       </c>
-      <c r="AB31" s="8">
+      <c r="AC31" s="8">
         <v>1051.82</v>
       </c>
-      <c r="AC31" s="8">
+      <c r="AD31" s="8">
         <v>1311.54</v>
-      </c>
-      <c r="AD31" s="8">
-        <v>881.48</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
@@ -3274,91 +3277,91 @@
         <v>26</v>
       </c>
       <c r="B32" s="8">
+        <v>600.17999999999995</v>
+      </c>
+      <c r="C32" s="8">
         <v>434.39</v>
       </c>
-      <c r="C32" s="8">
+      <c r="D32" s="8">
         <v>1313.02</v>
       </c>
-      <c r="D32" s="8">
+      <c r="E32" s="8">
         <v>7.34</v>
       </c>
-      <c r="E32" s="8">
+      <c r="F32" s="8">
         <v>1269.95</v>
       </c>
-      <c r="F32" s="8">
+      <c r="G32" s="8">
         <v>-865.6</v>
       </c>
-      <c r="G32" s="8">
+      <c r="H32" s="8">
         <v>1473.42</v>
       </c>
-      <c r="H32" s="8">
+      <c r="I32" s="8">
         <v>190.54</v>
       </c>
-      <c r="I32" s="8">
+      <c r="J32" s="8">
         <v>1599.05</v>
       </c>
-      <c r="J32" s="8">
+      <c r="K32" s="8">
         <v>445.29</v>
       </c>
-      <c r="K32" s="8">
+      <c r="L32" s="8">
         <v>179.1</v>
       </c>
-      <c r="L32" s="8">
+      <c r="M32" s="8">
         <v>-18.32</v>
       </c>
-      <c r="M32" s="8">
+      <c r="N32" s="8">
         <v>1385.63</v>
       </c>
-      <c r="N32" s="8">
+      <c r="O32" s="8">
         <v>1059.69</v>
       </c>
-      <c r="O32" s="8">
+      <c r="P32" s="8">
         <v>188.56</v>
       </c>
-      <c r="P32" s="8">
+      <c r="Q32" s="8">
         <v>221.96</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="R32" s="8">
         <v>-444.24</v>
       </c>
-      <c r="R32" s="8">
+      <c r="S32" s="8">
         <v>2409.1799999999998</v>
       </c>
-      <c r="S32" s="8">
+      <c r="T32" s="8">
         <v>-854.77</v>
       </c>
-      <c r="T32" s="8">
+      <c r="U32" s="8">
         <v>-604.25</v>
       </c>
-      <c r="U32" s="8">
+      <c r="V32" s="8">
         <v>1165.57</v>
       </c>
-      <c r="V32" s="8">
+      <c r="W32" s="8">
         <v>-401.77</v>
       </c>
-      <c r="W32" s="8">
+      <c r="X32" s="8">
         <v>-833.47</v>
       </c>
-      <c r="X32" s="8">
+      <c r="Y32" s="8">
         <v>1844.49</v>
       </c>
-      <c r="Y32" s="8">
+      <c r="Z32" s="8">
         <v>584.04</v>
       </c>
-      <c r="Z32" s="8">
+      <c r="AA32" s="8">
         <v>552.35</v>
       </c>
-      <c r="AA32" s="8">
+      <c r="AB32" s="8">
         <v>-258.3</v>
       </c>
-      <c r="AB32" s="8">
+      <c r="AC32" s="8">
         <v>193.18</v>
       </c>
-      <c r="AC32" s="8">
+      <c r="AD32" s="8">
         <v>1087.08</v>
-      </c>
-      <c r="AD32" s="8">
-        <v>141.49</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
@@ -3379,91 +3382,91 @@
         <v>29</v>
       </c>
       <c r="B36" s="10">
+        <v>1.54</v>
+      </c>
+      <c r="C36" s="10">
         <v>2.27</v>
       </c>
-      <c r="C36" s="10">
+      <c r="D36" s="10">
         <v>1.95</v>
       </c>
-      <c r="D36" s="10">
+      <c r="E36" s="10">
         <v>2.41</v>
       </c>
-      <c r="E36" s="10">
+      <c r="F36" s="10">
         <v>1.47</v>
       </c>
-      <c r="F36" s="10">
+      <c r="G36" s="10">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G36" s="10">
+      <c r="H36" s="10">
         <v>1.81</v>
       </c>
-      <c r="H36" s="10">
+      <c r="I36" s="10">
         <v>2.93</v>
       </c>
-      <c r="I36" s="10">
+      <c r="J36" s="10">
         <v>2.5499999999999998</v>
       </c>
-      <c r="J36" s="10">
+      <c r="K36" s="10">
         <v>1.57</v>
       </c>
-      <c r="K36" s="10">
+      <c r="L36" s="10">
         <v>1.19</v>
       </c>
-      <c r="L36" s="10">
+      <c r="M36" s="10">
         <v>1.82</v>
       </c>
-      <c r="M36" s="10">
+      <c r="N36" s="10">
         <v>1.44</v>
       </c>
-      <c r="N36" s="10">
+      <c r="O36" s="10">
         <v>1.27</v>
       </c>
-      <c r="O36" s="10">
+      <c r="P36" s="10">
         <v>1.29</v>
       </c>
-      <c r="P36" s="10">
+      <c r="Q36" s="10">
         <v>1.1399999999999999</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="R36" s="10">
         <v>1.29</v>
       </c>
-      <c r="R36" s="10">
+      <c r="S36" s="10">
         <v>0.33</v>
       </c>
-      <c r="S36" s="10">
+      <c r="T36" s="10">
         <v>0.89</v>
       </c>
-      <c r="T36" s="10">
+      <c r="U36" s="10">
         <v>1.1200000000000001</v>
       </c>
-      <c r="U36" s="10">
+      <c r="V36" s="10">
         <v>1.1599999999999999</v>
       </c>
-      <c r="V36" s="10">
+      <c r="W36" s="10">
         <v>0.34</v>
       </c>
-      <c r="W36" s="10">
+      <c r="X36" s="10">
         <v>0.74</v>
       </c>
-      <c r="X36" s="10">
+      <c r="Y36" s="10">
         <v>0.81</v>
       </c>
-      <c r="Y36" s="10">
+      <c r="Z36" s="10">
         <v>1.0900000000000001</v>
       </c>
-      <c r="Z36" s="10">
+      <c r="AA36" s="10">
         <v>0.47</v>
       </c>
-      <c r="AA36" s="10">
+      <c r="AB36" s="10">
         <v>0.65</v>
       </c>
-      <c r="AB36" s="10">
+      <c r="AC36" s="10">
         <v>-0.02</v>
       </c>
-      <c r="AC36" s="10">
+      <c r="AD36" s="10">
         <v>1.37</v>
-      </c>
-      <c r="AD36" s="10">
-        <v>0.61</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
@@ -3655,91 +3658,91 @@
         <v>32</v>
       </c>
       <c r="B39" s="14">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="C39" s="14">
         <v>0.89629999999999999</v>
       </c>
-      <c r="C39" s="14">
+      <c r="D39" s="14">
         <v>0.89759999999999995</v>
       </c>
-      <c r="D39" s="14">
+      <c r="E39" s="14">
         <v>0.89580000000000004</v>
       </c>
-      <c r="E39" s="14">
+      <c r="F39" s="14">
         <v>0.89549999999999996</v>
       </c>
-      <c r="F39" s="14">
+      <c r="G39" s="14">
         <v>0.89629999999999999</v>
       </c>
-      <c r="G39" s="14">
+      <c r="H39" s="14">
         <v>0.89790000000000003</v>
       </c>
-      <c r="H39" s="14">
+      <c r="I39" s="14">
         <v>0.89900000000000002</v>
       </c>
-      <c r="I39" s="14">
+      <c r="J39" s="14">
         <v>0.90090000000000003</v>
       </c>
-      <c r="J39" s="14">
+      <c r="K39" s="14">
         <v>0.90429999999999999</v>
       </c>
-      <c r="K39" s="14">
+      <c r="L39" s="14">
         <v>0.90590000000000004</v>
       </c>
-      <c r="L39" s="14">
+      <c r="M39" s="14">
         <v>0.9073</v>
       </c>
-      <c r="M39" s="14">
+      <c r="N39" s="14">
         <v>0.90820000000000001</v>
       </c>
-      <c r="N39" s="14">
+      <c r="O39" s="14">
         <v>0.90949999999999998</v>
       </c>
-      <c r="O39" s="14">
+      <c r="P39" s="14">
         <v>0.90939999999999999</v>
       </c>
-      <c r="P39" s="14">
+      <c r="Q39" s="14">
         <v>0.91090000000000004</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="R39" s="14">
         <v>0.91020000000000001</v>
       </c>
-      <c r="R39" s="14">
+      <c r="S39" s="14">
         <v>0.91279999999999994</v>
       </c>
-      <c r="S39" s="14">
+      <c r="T39" s="14">
         <v>0.9093</v>
       </c>
-      <c r="T39" s="14">
+      <c r="U39" s="14">
         <v>0.91139999999999999</v>
       </c>
-      <c r="U39" s="14">
+      <c r="V39" s="14">
         <v>0.91210000000000002</v>
       </c>
-      <c r="V39" s="14">
+      <c r="W39" s="14">
         <v>0.91320000000000001</v>
       </c>
-      <c r="W39" s="14">
+      <c r="X39" s="14">
         <v>0.9133</v>
       </c>
-      <c r="X39" s="14">
+      <c r="Y39" s="14">
         <v>0.91269999999999996</v>
       </c>
-      <c r="Y39" s="14">
+      <c r="Z39" s="14">
         <v>0.90949999999999998</v>
       </c>
-      <c r="Z39" s="14">
+      <c r="AA39" s="14">
         <v>0.91169999999999995</v>
       </c>
-      <c r="AA39" s="14">
+      <c r="AB39" s="14">
         <v>0.92700000000000005</v>
       </c>
-      <c r="AB39" s="14">
+      <c r="AC39" s="14">
         <v>0.92969999999999997</v>
       </c>
-      <c r="AC39" s="14">
+      <c r="AD39" s="14">
         <v>0.93100000000000005</v>
-      </c>
-      <c r="AD39" s="14">
-        <v>0.92869999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
@@ -3839,91 +3842,91 @@
         <v>34</v>
       </c>
       <c r="B41" s="14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C41" s="14">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="C41" s="14">
+      <c r="D41" s="14">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D41" s="14">
+      <c r="E41" s="14">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="E41" s="14">
+      <c r="F41" s="14">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F41" s="14">
+      <c r="G41" s="14">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="G41" s="14">
+      <c r="H41" s="14">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="H41" s="14">
+      <c r="I41" s="14">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I41" s="14">
+      <c r="J41" s="14">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="J41" s="14">
+      <c r="K41" s="14">
         <v>5.21E-2</v>
       </c>
-      <c r="K41" s="14">
+      <c r="L41" s="14">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="L41" s="14">
+      <c r="M41" s="14">
         <v>6.3E-2</v>
       </c>
-      <c r="M41" s="14">
+      <c r="N41" s="14">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="N41" s="14">
+      <c r="O41" s="14">
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="O41" s="14">
+      <c r="P41" s="14">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="P41" s="14">
+      <c r="Q41" s="14">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="Q41" s="14">
+      <c r="R41" s="14">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="R41" s="14">
+      <c r="S41" s="14">
         <v>1.66E-2</v>
       </c>
-      <c r="S41" s="14">
+      <c r="T41" s="14">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="T41" s="14">
+      <c r="U41" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="U41" s="14">
+      <c r="V41" s="14">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="V41" s="14">
+      <c r="W41" s="14">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="W41" s="14">
+      <c r="X41" s="14">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="X41" s="14">
+      <c r="Y41" s="14">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="Y41" s="14">
+      <c r="Z41" s="14">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="Z41" s="14">
+      <c r="AA41" s="14">
         <v>2.63E-2</v>
       </c>
-      <c r="AA41" s="14">
+      <c r="AB41" s="14">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="AB41" s="14">
+      <c r="AC41" s="14">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="AC41" s="14">
+      <c r="AD41" s="14">
         <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="AD41" s="14">
-        <v>2.7300000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
@@ -4023,91 +4026,91 @@
         <v>36</v>
       </c>
       <c r="B43" s="14">
+        <v>0.11382629852956734</v>
+      </c>
+      <c r="C43" s="14">
         <v>0.16814884894355095</v>
       </c>
-      <c r="C43" s="14">
+      <c r="D43" s="14">
         <v>0.16239194187674583</v>
       </c>
-      <c r="D43" s="14">
+      <c r="E43" s="14">
         <v>0.17745142220926224</v>
       </c>
-      <c r="E43" s="14">
+      <c r="F43" s="14">
         <v>0.11418707263264387</v>
       </c>
-      <c r="F43" s="14">
+      <c r="G43" s="14">
         <v>8.6575931854727728E-2</v>
       </c>
-      <c r="G43" s="14">
+      <c r="H43" s="14">
         <v>0.17637502168803923</v>
       </c>
-      <c r="H43" s="14">
+      <c r="I43" s="14">
         <v>0.20341846939010091</v>
       </c>
-      <c r="I43" s="14">
+      <c r="J43" s="14">
         <v>0.16739959964142256</v>
       </c>
-      <c r="J43" s="14">
+      <c r="K43" s="14">
         <v>0.18263547786088058</v>
       </c>
-      <c r="K43" s="14">
+      <c r="L43" s="14">
         <v>0.16485951391908518</v>
       </c>
-      <c r="L43" s="14">
+      <c r="M43" s="14">
         <v>0.20947756121184119</v>
       </c>
-      <c r="M43" s="14">
+      <c r="N43" s="14">
         <v>0.12716044225807385</v>
       </c>
-      <c r="N43" s="14">
+      <c r="O43" s="14">
         <v>0.1502106371774618</v>
       </c>
-      <c r="O43" s="14">
+      <c r="P43" s="14">
         <v>0.17579301345111423</v>
       </c>
-      <c r="P43" s="14">
+      <c r="Q43" s="14">
         <v>0.16530728711611206</v>
       </c>
-      <c r="Q43" s="14">
+      <c r="R43" s="14">
         <v>0.12331282572294029</v>
       </c>
-      <c r="R43" s="14">
+      <c r="S43" s="14">
         <v>6.8163645654853153E-2</v>
       </c>
-      <c r="S43" s="14">
+      <c r="T43" s="14">
         <v>0.15486749163524352</v>
       </c>
-      <c r="T43" s="14">
+      <c r="U43" s="14">
         <v>0.17078665077473182</v>
       </c>
-      <c r="U43" s="14">
+      <c r="V43" s="14">
         <v>0.12988791374002306</v>
       </c>
-      <c r="V43" s="14">
+      <c r="W43" s="14">
         <v>8.3149389579245697E-2</v>
       </c>
-      <c r="W43" s="14">
+      <c r="X43" s="14">
         <v>0.15753490469116091</v>
       </c>
-      <c r="X43" s="14">
+      <c r="Y43" s="14">
         <v>0.15985029424076036</v>
       </c>
-      <c r="Y43" s="14">
+      <c r="Z43" s="14">
         <v>0.19070199536068669</v>
       </c>
-      <c r="Z43" s="14">
+      <c r="AA43" s="14">
         <v>0.10741465719444492</v>
       </c>
-      <c r="AA43" s="14">
+      <c r="AB43" s="14">
         <v>0.15824261275272161</v>
       </c>
-      <c r="AB43" s="14">
+      <c r="AC43" s="14">
         <v>0.15072921222262364</v>
       </c>
-      <c r="AC43" s="14">
+      <c r="AD43" s="14">
         <v>0.12704149320645958</v>
-      </c>
-      <c r="AD43" s="14">
-        <v>9.7948904115805244E-2</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
@@ -4115,91 +4118,91 @@
         <v>37</v>
       </c>
       <c r="B44" s="14">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C44" s="14">
         <v>0.1308</v>
       </c>
-      <c r="C44" s="14">
+      <c r="D44" s="14">
         <v>0.12529999999999999</v>
       </c>
-      <c r="D44" s="14">
+      <c r="E44" s="14">
         <v>0.1206</v>
       </c>
-      <c r="E44" s="14">
+      <c r="F44" s="14">
         <v>9.2399999999999996E-2</v>
       </c>
-      <c r="F44" s="14">
+      <c r="G44" s="14">
         <v>0.1406</v>
       </c>
-      <c r="G44" s="14">
+      <c r="H44" s="14">
         <v>0.1588</v>
       </c>
-      <c r="H44" s="14">
+      <c r="I44" s="14">
         <v>0.16539999999999999</v>
       </c>
-      <c r="I44" s="14">
+      <c r="J44" s="14">
         <v>0.13039999999999999</v>
       </c>
-      <c r="J44" s="14">
+      <c r="K44" s="14">
         <v>0.12330000000000001</v>
       </c>
-      <c r="K44" s="14">
+      <c r="L44" s="14">
         <v>0.1192</v>
       </c>
-      <c r="L44" s="14">
+      <c r="M44" s="14">
         <v>0.1211</v>
       </c>
-      <c r="M44" s="14">
+      <c r="N44" s="14">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="N44" s="14">
+      <c r="O44" s="14">
         <v>0.11219999999999999</v>
       </c>
-      <c r="O44" s="14">
+      <c r="P44" s="14">
         <v>0.1135</v>
       </c>
-      <c r="P44" s="14">
+      <c r="Q44" s="14">
         <v>0.10589999999999999</v>
       </c>
-      <c r="Q44" s="14">
+      <c r="R44" s="14">
         <v>9.69E-2</v>
       </c>
-      <c r="R44" s="14">
+      <c r="S44" s="14">
         <v>0.1016</v>
       </c>
-      <c r="S44" s="14">
+      <c r="T44" s="14">
         <v>0.1187</v>
       </c>
-      <c r="T44" s="14">
+      <c r="U44" s="14">
         <v>0.1229</v>
       </c>
-      <c r="U44" s="14">
+      <c r="V44" s="14">
         <v>0.112</v>
       </c>
-      <c r="V44" s="14">
+      <c r="W44" s="14">
         <v>0.1051</v>
       </c>
-      <c r="W44" s="14">
+      <c r="X44" s="14">
         <v>0.1192</v>
       </c>
-      <c r="X44" s="14">
+      <c r="Y44" s="14">
         <v>0.1181</v>
       </c>
-      <c r="Y44" s="14">
+      <c r="Z44" s="14">
         <v>0.12790000000000001</v>
       </c>
-      <c r="Z44" s="14">
+      <c r="AA44" s="14">
         <v>0.10349999999999999</v>
       </c>
-      <c r="AA44" s="14">
+      <c r="AB44" s="14">
         <v>0.1123</v>
       </c>
-      <c r="AB44" s="14">
+      <c r="AC44" s="14">
         <v>0.1094</v>
       </c>
-      <c r="AC44" s="14">
+      <c r="AD44" s="14">
         <v>9.9099999999999994E-2</v>
-      </c>
-      <c r="AD44" s="14">
-        <v>9.9299999999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
@@ -4299,91 +4302,91 @@
         <v>39</v>
       </c>
       <c r="B46" s="14">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C46" s="14">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="C46" s="14">
+      <c r="D46" s="14">
         <v>0.13220000000000001</v>
       </c>
-      <c r="D46" s="14">
+      <c r="E46" s="14">
         <v>0.15629999999999999</v>
       </c>
-      <c r="E46" s="14">
+      <c r="F46" s="14">
         <v>-0.13220000000000001</v>
       </c>
-      <c r="F46" s="14">
+      <c r="G46" s="14">
         <v>0.23069999999999999</v>
       </c>
-      <c r="G46" s="14">
+      <c r="H46" s="14">
         <v>0.1731</v>
       </c>
-      <c r="H46" s="14">
+      <c r="I46" s="14">
         <v>0.15959999999999999</v>
       </c>
-      <c r="I46" s="14">
+      <c r="J46" s="14">
         <v>0.21510000000000001</v>
       </c>
-      <c r="J46" s="14">
+      <c r="K46" s="14">
         <v>-1.55E-2</v>
       </c>
-      <c r="K46" s="14">
+      <c r="L46" s="14">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="L46" s="14">
+      <c r="M46" s="14">
         <v>0.13669999999999999</v>
       </c>
-      <c r="M46" s="14">
+      <c r="N46" s="14">
         <v>0.16819999999999999</v>
       </c>
-      <c r="N46" s="14">
+      <c r="O46" s="14">
         <v>0.37</v>
       </c>
-      <c r="O46" s="14">
+      <c r="P46" s="14">
         <v>0.1757</v>
       </c>
-      <c r="P46" s="14">
+      <c r="Q46" s="14">
         <v>0.18</v>
       </c>
-      <c r="Q46" s="14">
+      <c r="R46" s="14">
         <v>0.27189999999999998</v>
       </c>
-      <c r="R46" s="14">
+      <c r="S46" s="14">
         <v>0.13320000000000001</v>
       </c>
-      <c r="S46" s="14">
+      <c r="T46" s="14">
         <v>0.2525</v>
       </c>
-      <c r="T46" s="14">
+      <c r="U46" s="14">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="U46" s="14">
+      <c r="V46" s="14">
         <v>0.19040000000000001</v>
       </c>
-      <c r="V46" s="14">
+      <c r="W46" s="14">
         <v>0.23849999999999999</v>
       </c>
-      <c r="W46" s="14">
+      <c r="X46" s="14">
         <v>0.2525</v>
       </c>
-      <c r="X46" s="14">
+      <c r="Y46" s="14">
         <v>0.54449999999999998</v>
       </c>
-      <c r="Y46" s="14">
+      <c r="Z46" s="14">
         <v>0.33779999999999999</v>
       </c>
-      <c r="Z46" s="14">
+      <c r="AA46" s="14">
         <v>0.34460000000000002</v>
       </c>
-      <c r="AA46" s="14">
+      <c r="AB46" s="14">
         <v>0.2707</v>
       </c>
-      <c r="AB46" s="14">
+      <c r="AC46" s="14">
         <v>0.21829999999999999</v>
       </c>
-      <c r="AC46" s="14">
+      <c r="AD46" s="14">
         <v>0.2717</v>
-      </c>
-      <c r="AD46" s="14">
-        <v>0.20860000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
@@ -4391,91 +4394,91 @@
         <v>40</v>
       </c>
       <c r="B47" s="14">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="C47" s="14">
         <v>1.0190999999999999</v>
       </c>
-      <c r="C47" s="14">
+      <c r="D47" s="14">
         <v>7.7399999999999997E-2</v>
       </c>
-      <c r="D47" s="14">
+      <c r="E47" s="14">
         <v>-0.18290000000000001</v>
       </c>
-      <c r="E47" s="14">
+      <c r="F47" s="14">
         <v>-0.4274</v>
       </c>
-      <c r="F47" s="14">
+      <c r="G47" s="14">
         <v>-0.29160000000000003</v>
       </c>
-      <c r="G47" s="14">
+      <c r="H47" s="14">
         <v>0.49709999999999999</v>
       </c>
-      <c r="H47" s="14">
+      <c r="I47" s="14">
         <v>0.61019999999999996</v>
       </c>
-      <c r="I47" s="14">
+      <c r="J47" s="14">
         <v>0.77100000000000002</v>
       </c>
-      <c r="J47" s="14">
+      <c r="K47" s="14">
         <v>0.23</v>
       </c>
-      <c r="K47" s="14">
+      <c r="L47" s="14">
         <v>-6.9400000000000003E-2</v>
       </c>
-      <c r="L47" s="14">
+      <c r="M47" s="14">
         <v>0.58989999999999998</v>
       </c>
-      <c r="M47" s="14">
+      <c r="N47" s="14">
         <v>0.1149</v>
       </c>
-      <c r="N47" s="14">
+      <c r="O47" s="14">
         <v>2.8685</v>
       </c>
-      <c r="O47" s="14">
+      <c r="P47" s="14">
         <v>0.4551</v>
       </c>
-      <c r="P47" s="14">
+      <c r="Q47" s="14">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="Q47" s="14">
+      <c r="R47" s="14">
         <v>0.1137</v>
       </c>
-      <c r="R47" s="14">
+      <c r="S47" s="14">
         <v>-6.8999999999999999E-3</v>
       </c>
-      <c r="S47" s="14">
+      <c r="T47" s="14">
         <v>0.1545</v>
       </c>
-      <c r="T47" s="14">
+      <c r="U47" s="14">
         <v>0.36709999999999998</v>
       </c>
-      <c r="U47" s="14">
+      <c r="V47" s="14">
         <v>3.6900000000000002E-2</v>
       </c>
-      <c r="V47" s="14">
+      <c r="W47" s="14">
         <v>-0.21929999999999999</v>
       </c>
-      <c r="W47" s="14">
+      <c r="X47" s="14">
         <v>0.31979999999999997</v>
       </c>
-      <c r="X47" s="14">
+      <c r="Y47" s="14">
         <v>0.39150000000000001</v>
       </c>
-      <c r="Y47" s="14">
+      <c r="Z47" s="14">
         <v>0.84699999999999998</v>
       </c>
-      <c r="Z47" s="14">
+      <c r="AA47" s="14">
         <v>0.57669999999999999</v>
       </c>
-      <c r="AA47" s="14">
+      <c r="AB47" s="14">
         <v>0.90180000000000005</v>
       </c>
-      <c r="AB47" s="14">
+      <c r="AC47" s="14">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="AC47" s="14">
+      <c r="AD47" s="14">
         <v>0.46210000000000001</v>
-      </c>
-      <c r="AD47" s="14">
-        <v>0.21440000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
